--- a/expense_report.xlsx
+++ b/expense_report.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -586,19 +586,19 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Bosch</t>
+          <t>Honor</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Bosch Chopper</t>
+          <t>Honor X8 B</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>1000000</v>
+        <v>2400000</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -607,34 +607,34 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-03-27</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>21:50:28</t>
+          <t>14:43:45</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>4000000</v>
+        <v>2400000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Bosch</t>
+          <t>Xioami</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Bosch Chopper</t>
+          <t>Xiaomi Pad 6</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>340000</v>
+        <v>3000000</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -643,118 +643,46 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-03-27</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>10:06:00</t>
+          <t>14:43:45</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>680000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Honor</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Honor X8 B</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="n">
-        <v>2400000</v>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>UZS</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2025-03-27</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>14:43:45</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>2400000</v>
-      </c>
+      <c r="A7" t="inlineStr"/>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr"/>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Xioami</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Xiaomi Pad 6</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-      <c r="D8" t="n">
-        <v>3000000</v>
-      </c>
+          <t>Jami</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr"/>
+      <c r="C8" t="inlineStr"/>
+      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
-          <t>UZS</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2025-03-27</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>14:43:45</t>
-        </is>
-      </c>
+          <t>USD</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
       <c r="H8" t="n">
-        <v>3000000</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr"/>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Jami</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>UZS</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="inlineStr"/>
-      <c r="H10" t="n">
-        <v>15599582.8</v>
+        <v>844.27</v>
       </c>
     </row>
   </sheetData>
